--- a/biology/Médecine/1325_en_santé_et_médecine/1325_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1325_en_santé_et_médecine/1325_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1325_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1325_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1325 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1325_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1325_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Guy de Chauliac, chirurgien français, qui sera l'auteur en 1363 d'un très important traité de « grande chirurgie » (Chirurgia magna), obtient le titre de maître en médecine de la faculté de Montpellier[1].
-Une maison-Dieu est attestée à Barbezieux en Saintonge dans une charte accordée par le roi Charles le Bel, « simple salle du pireuré Notre-Dame affectée à l'hébergement des pauvres et des malades[2] ».
-Avant 1325 : l'existence du St. John the Baptist Hospital (en) (« hôpital Saint-Jean-Baptiste ») est attestée à Arbroath en Écosse[3].
-Vers 1325 : la léproserie de Moingt, près Montbrison, dans le Forez, est annexée à l'hôpital Sainte-Anne, « sans doute parce qu'il y a peu de malades ; la maladie commençant à diminuer d'intensité[4] ».
-1325-1326 : fondation à Paris par Louis de Bourbon, comte de Clermont, de l'hôpital du Saint-Sépulcre[5] « pour l'accueil des pèlerins revenus de Terre Sainte et pour servir de lieu de réunion à l'archiconfrérie du Saint-Sépulcre[6] », mais dont l'abbé Desfontaines écrit qu'« on prétend qu'il ne fut ni doté ni bâti[7] ».
-1325 ou 1342 : fondation du premier hôpital de Lubiana, en Slovénie[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Guy de Chauliac, chirurgien français, qui sera l'auteur en 1363 d'un très important traité de « grande chirurgie » (Chirurgia magna), obtient le titre de maître en médecine de la faculté de Montpellier.
+Une maison-Dieu est attestée à Barbezieux en Saintonge dans une charte accordée par le roi Charles le Bel, « simple salle du pireuré Notre-Dame affectée à l'hébergement des pauvres et des malades ».
+Avant 1325 : l'existence du St. John the Baptist Hospital (en) (« hôpital Saint-Jean-Baptiste ») est attestée à Arbroath en Écosse.
+Vers 1325 : la léproserie de Moingt, près Montbrison, dans le Forez, est annexée à l'hôpital Sainte-Anne, « sans doute parce qu'il y a peu de malades ; la maladie commençant à diminuer d'intensité ».
+1325-1326 : fondation à Paris par Louis de Bourbon, comte de Clermont, de l'hôpital du Saint-Sépulcre « pour l'accueil des pèlerins revenus de Terre Sainte et pour servir de lieu de réunion à l'archiconfrérie du Saint-Sépulcre », mais dont l'abbé Desfontaines écrit qu'« on prétend qu'il ne fut ni doté ni bâti ».
+1325 ou 1342 : fondation du premier hôpital de Lubiana, en Slovénie.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1325_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1325_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1325 ou 1327 : Luo Zhiti (né vers 1238), médecin chinois, maître de Zhu Zhenheng[9],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1325 ou 1327 : Luo Zhiti (né vers 1238), médecin chinois, maître de Zhu Zhenheng,.
 </t>
         </is>
       </c>
